--- a/data/Yting_260321_20210326-103027/Results.xlsx
+++ b/data/Yting_260321_20210326-103027/Results.xlsx
@@ -11,13 +11,14 @@
     <sheet name="Calc" sheetId="2" r:id="rId2"/>
     <sheet name="Results" sheetId="3" r:id="rId3"/>
     <sheet name="Constants" sheetId="4" r:id="rId4"/>
+    <sheet name="Options" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="169">
   <si>
     <t>Lab. #</t>
   </si>
@@ -385,9 +386,8 @@
         <vertAlign val="superscript"/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
       <t>o</t>
     </r>
@@ -407,9 +407,8 @@
         <vertAlign val="subscript"/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
       <t>oo</t>
     </r>
@@ -452,9 +451,8 @@
         <vertAlign val="superscript"/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
       <t>o</t>
     </r>
@@ -474,9 +472,8 @@
         <vertAlign val="subscript"/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
       <t>oo</t>
     </r>
@@ -605,12 +602,24 @@
   <si>
     <t>a230232_init_err</t>
   </si>
+  <si>
+    <t>Mean method</t>
+  </si>
+  <si>
+    <t>Outlier detection method</t>
+  </si>
+  <si>
+    <t>Median</t>
+  </si>
+  <si>
+    <t>Standard deviation</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -622,9 +631,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -702,7 +716,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -710,11 +724,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1169,6 +1188,9 @@
       <c r="C3" s="3" t="s">
         <v>31</v>
       </c>
+      <c r="D3" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="F3" s="3">
         <v>1.10995</v>
       </c>
@@ -1230,80 +1252,80 @@
         <v>1.726512574742643</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
-      <c r="A4">
+    <row r="4" spans="1:25" s="4" customFormat="1">
+      <c r="A4" s="4">
         <v>11069</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="4">
         <v>62.5</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="4">
         <v>0.06709</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="4">
         <v>0.1013800000000007</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="4">
         <v>0.01001464435336744</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="4">
         <v>3.988986395410593</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="4">
         <v>0.007159443268110569</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="4">
         <v>0.2433412122966173</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="4">
         <v>0.2087949818774892</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="4">
         <v>2.784202105567774</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="4">
         <v>0.157989250425516</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="4">
         <v>2.214395630898379</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="4">
         <v>0.007585844208432104</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" s="4">
         <v>0.2105665503060151</v>
       </c>
-      <c r="R4">
+      <c r="R4" s="4">
         <v>5.501732804688176E-05</v>
       </c>
-      <c r="S4">
+      <c r="S4" s="4">
         <v>0.2105665503060163</v>
       </c>
-      <c r="T4">
+      <c r="T4" s="4">
         <v>0.03525043890623247</v>
       </c>
-      <c r="U4">
+      <c r="U4" s="4">
         <v>5.705288904693922</v>
       </c>
-      <c r="V4">
+      <c r="V4" s="4">
         <v>0.3294613250209388</v>
       </c>
-      <c r="W4">
+      <c r="W4" s="4">
         <v>1.213265190703177</v>
       </c>
-      <c r="X4">
+      <c r="X4" s="4">
         <v>0.01157264535611715</v>
       </c>
-      <c r="Y4">
+      <c r="Y4" s="4">
         <v>2.453371522281945</v>
       </c>
     </row>
@@ -1317,6 +1339,9 @@
       <c r="C5" s="3" t="s">
         <v>31</v>
       </c>
+      <c r="D5" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="F5" s="3">
         <v>1.10995</v>
       </c>
@@ -1378,80 +1403,80 @@
         <v>1.004207089032775</v>
       </c>
     </row>
-    <row r="6" spans="1:25">
-      <c r="A6">
+    <row r="6" spans="1:25" s="4" customFormat="1">
+      <c r="A6" s="4">
         <v>11070</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="4">
         <v>99</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="4">
         <v>0.04188</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="4">
         <v>0.1033500000000007</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="4">
         <v>0.0100333743049465</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="4">
         <v>0.4349619753938642</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="4">
         <v>0.007142862075553487</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="4">
         <v>0.1244576487916852</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="4">
         <v>0.0340962603054759</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="4">
         <v>0.09998252009169473</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="4">
         <v>0.02552537483995687</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="4">
         <v>0.6842968537354914</v>
       </c>
-      <c r="P6">
+      <c r="P6" s="4">
         <v>0.007535591938662253</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" s="4">
         <v>0.5107608796364962</v>
       </c>
-      <c r="R6">
+      <c r="R6" s="4">
         <v>5.465286688276307E-05</v>
       </c>
-      <c r="S6">
+      <c r="S6" s="4">
         <v>0.5107608796364961</v>
       </c>
-      <c r="T6">
+      <c r="T6" s="4">
         <v>0.005921825770778144</v>
       </c>
-      <c r="U6">
+      <c r="U6" s="4">
         <v>2.813032265449945</v>
       </c>
-      <c r="V6">
+      <c r="V6" s="4">
         <v>0.2259939097674143</v>
       </c>
-      <c r="W6">
+      <c r="W6" s="4">
         <v>1.381875981856847</v>
       </c>
-      <c r="X6">
+      <c r="X6" s="4">
         <v>0.001274691673562648</v>
       </c>
-      <c r="Y6">
+      <c r="Y6" s="4">
         <v>2.97747271498213</v>
       </c>
     </row>
@@ -1465,6 +1490,9 @@
       <c r="C7" s="3" t="s">
         <v>31</v>
       </c>
+      <c r="D7" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="F7" s="3">
         <v>1.10995</v>
       </c>
@@ -1526,80 +1554,80 @@
         <v>1.28265146190901</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
-      <c r="A8">
+    <row r="8" spans="1:25" s="4" customFormat="1">
+      <c r="A8" s="4">
         <v>11071</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="4">
         <v>98.5</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="4">
         <v>0.09655</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="4">
         <v>0.1004199999999997</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="4">
         <v>0.01001478293103228</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="4">
         <v>0.2991249825553106</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="4">
         <v>0.007148360260622351</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="4">
         <v>0.03217013055235829</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="4">
         <v>0.13025665020751</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="4">
         <v>0.0304533949071753</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="4">
         <v>0.09979483482092993</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="4">
         <v>0.4047604426046078</v>
       </c>
-      <c r="P8">
+      <c r="P8" s="4">
         <v>0.007651493862998872</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" s="4">
         <v>0.1960179186031241</v>
       </c>
-      <c r="R8">
+      <c r="R8" s="4">
         <v>5.549346075963237E-05</v>
       </c>
-      <c r="S8">
+      <c r="S8" s="4">
         <v>0.1960179186031242</v>
       </c>
-      <c r="T8">
+      <c r="T8" s="4">
         <v>0.01783305396177997</v>
       </c>
-      <c r="U8">
+      <c r="U8" s="4">
         <v>1.001748480524192</v>
       </c>
-      <c r="V8">
+      <c r="V8" s="4">
         <v>0.249544100283467</v>
       </c>
-      <c r="W8">
+      <c r="W8" s="4">
         <v>0.5610059207786317</v>
       </c>
-      <c r="X8">
+      <c r="X8" s="4">
         <v>0.004458367135931112</v>
       </c>
-      <c r="Y8">
+      <c r="Y8" s="4">
         <v>0.6951876357866389</v>
       </c>
     </row>
@@ -1613,6 +1641,9 @@
       <c r="C9" s="3" t="s">
         <v>31</v>
       </c>
+      <c r="D9" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="F9" s="3">
         <v>1.10995</v>
       </c>
@@ -1674,77 +1705,77 @@
         <v>1.300845587375957</v>
       </c>
     </row>
-    <row r="10" spans="1:25">
-      <c r="A10">
+    <row r="10" spans="1:25" s="4" customFormat="1">
+      <c r="A10" s="4">
         <v>11072</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="4">
         <v>0.07819</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="4">
         <v>0.1007600000000011</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="4">
         <v>0.01002841579556259</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="4">
         <v>0.2201995065723723</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="4">
         <v>0.007143815489368317</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="4">
         <v>0.01362284789174124</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="4">
         <v>0.3862548064806442</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="4">
         <v>0.008632726519021489</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="4">
         <v>0.2950203981457464</v>
       </c>
-      <c r="O10">
+      <c r="O10" s="4">
         <v>0.2452953080741899</v>
       </c>
-      <c r="P10">
+      <c r="P10" s="4">
         <v>0.007672824727450308</v>
       </c>
-      <c r="Q10">
+      <c r="Q10" s="4">
         <v>0.1598112027448657</v>
       </c>
-      <c r="R10">
+      <c r="R10" s="4">
         <v>5.564816564610286E-05</v>
       </c>
-      <c r="S10">
+      <c r="S10" s="4">
         <v>0.1598112027448663</v>
       </c>
-      <c r="T10">
+      <c r="T10" s="4">
         <v>0.1438931916272418</v>
       </c>
-      <c r="U10">
+      <c r="U10" s="4">
         <v>0.365815313729743</v>
       </c>
-      <c r="V10">
+      <c r="V10" s="4">
         <v>0.01854280137926809</v>
       </c>
-      <c r="W10">
+      <c r="W10" s="4">
         <v>0.2678043872163008</v>
       </c>
-      <c r="X10">
+      <c r="X10" s="4">
         <v>0.002664781889775179</v>
       </c>
-      <c r="Y10">
+      <c r="Y10" s="4">
         <v>0.3003130595442578</v>
       </c>
     </row>
@@ -1758,6 +1789,9 @@
       <c r="C11" s="3" t="s">
         <v>31</v>
       </c>
+      <c r="D11" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="F11" s="3">
         <v>1.10995</v>
       </c>
@@ -1819,77 +1853,77 @@
         <v>1.249551913334694</v>
       </c>
     </row>
-    <row r="12" spans="1:25">
-      <c r="A12">
+    <row r="12" spans="1:25" s="4" customFormat="1">
+      <c r="A12" s="4">
         <v>11074</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="4">
         <v>0.07224999999999999</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="4">
         <v>0.1019600000000001</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="4">
         <v>0.009527788728580266</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="4">
         <v>0.3030891627036431</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="4">
         <v>0.00713422969787728</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="4">
         <v>0.01412411070183477</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="4">
         <v>0.4493095712755549</v>
       </c>
-      <c r="M12">
+      <c r="M12" s="4">
         <v>0.009845085273641255</v>
       </c>
-      <c r="N12">
+      <c r="N12" s="4">
         <v>0.3880735022186643</v>
       </c>
-      <c r="O12">
+      <c r="O12" s="4">
         <v>0.3234771529929047</v>
       </c>
-      <c r="P12">
+      <c r="P12" s="4">
         <v>0.008214285842035851</v>
       </c>
-      <c r="Q12">
+      <c r="Q12" s="4">
         <v>0.1181142656994033</v>
       </c>
-      <c r="R12">
+      <c r="R12" s="4">
         <v>5.957518325248473E-05</v>
       </c>
-      <c r="S12">
+      <c r="S12" s="4">
         <v>0.1181142656994044</v>
       </c>
-      <c r="T12">
+      <c r="T12" s="4">
         <v>0.1434984853044898</v>
       </c>
-      <c r="U12">
+      <c r="U12" s="4">
         <v>0.3364171721037157</v>
       </c>
-      <c r="V12">
+      <c r="V12" s="4">
         <v>0.0009631928586580701</v>
       </c>
-      <c r="W12">
+      <c r="W12" s="4">
         <v>0.255338915736973</v>
       </c>
-      <c r="X12">
+      <c r="X12" s="4">
         <v>0.0001387130736508046</v>
       </c>
-      <c r="Y12">
+      <c r="Y12" s="4">
         <v>0.2564753741715639</v>
       </c>
     </row>
@@ -1902,6 +1936,9 @@
       </c>
       <c r="C13" s="3" t="s">
         <v>31</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="F13" s="3">
         <v>1.10995</v>
@@ -2026,13 +2063,13 @@
     <col min="47" max="47" width="9.7109375" customWidth="1"/>
     <col min="48" max="48" width="13.7109375" customWidth="1"/>
     <col min="49" max="49" width="9.7109375" customWidth="1"/>
-    <col min="50" max="50" width="19.7109375" customWidth="1"/>
+    <col min="50" max="50" width="20.7109375" customWidth="1"/>
     <col min="51" max="51" width="19.7109375" customWidth="1"/>
     <col min="52" max="52" width="18.7109375" customWidth="1"/>
     <col min="53" max="53" width="6.7109375" customWidth="1"/>
     <col min="54" max="54" width="19.7109375" customWidth="1"/>
     <col min="55" max="55" width="19.7109375" customWidth="1"/>
-    <col min="56" max="56" width="18.7109375" customWidth="1"/>
+    <col min="56" max="56" width="19.7109375" customWidth="1"/>
     <col min="57" max="57" width="19.7109375" customWidth="1"/>
     <col min="58" max="58" width="19.7109375" customWidth="1"/>
     <col min="59" max="59" width="32.7109375" customWidth="1"/>
@@ -2528,10 +2565,10 @@
         <v>3.862215446149508E-07</v>
       </c>
       <c r="AT3" s="3">
-        <v>8</v>
+        <v>0.75</v>
       </c>
       <c r="AU3" s="3">
-        <v>4</v>
+        <v>0.375</v>
       </c>
       <c r="AV3" s="3" t="s">
         <v>108</v>
@@ -2570,185 +2607,185 @@
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="1:60">
-      <c r="A4">
+    <row r="4" spans="1:60" s="4" customFormat="1">
+      <c r="A4" s="4">
         <v>11069</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="4">
         <v>0.157989250425516</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="4">
         <v>0.003498507058711726</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="4">
         <v>0.2087949818774892</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="4">
         <v>0.005813274281752905</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="4">
         <v>28.78886089625008</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="4">
         <v>0.07005516311132177</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="4">
         <v>0.3</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="4">
         <v>9.239871789734023</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="4">
         <v>0.204607317212482</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="4">
         <v>0.1275696822325985</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="4">
         <v>0.002824897469709608</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="4">
         <v>0.005</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="4">
         <v>0.1696147946525543</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="4">
         <v>0.004722418684070873</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" s="4">
         <v>0.1265560884611643</v>
       </c>
-      <c r="R4">
+      <c r="R4" s="4">
         <v>0.00352357727965995</v>
       </c>
-      <c r="S4">
+      <c r="S4" s="4">
         <v>1.000884453105451</v>
       </c>
-      <c r="T4">
+      <c r="T4" s="4">
         <v>0.002107527865453386</v>
       </c>
-      <c r="U4">
+      <c r="U4" s="4">
         <v>1.118369638954889</v>
       </c>
-      <c r="V4">
+      <c r="V4" s="4">
         <v>0.002354912368417159</v>
       </c>
-      <c r="W4">
+      <c r="W4" s="4">
         <v>0.003</v>
       </c>
-      <c r="X4">
+      <c r="X4" s="4">
         <v>0.03923760064358411</v>
       </c>
-      <c r="Y4">
+      <c r="Y4" s="4">
         <v>0.0004760561502757319</v>
       </c>
-      <c r="Z4">
+      <c r="Z4" s="4">
         <v>9.579391568258577E-06</v>
       </c>
-      <c r="AA4">
+      <c r="AA4" s="4">
         <v>1.162234233788365E-07</v>
       </c>
-      <c r="AB4">
+      <c r="AB4" s="4">
         <v>0.05</v>
       </c>
-      <c r="AC4">
+      <c r="AC4" s="4">
         <v>0.9658390622430802</v>
       </c>
-      <c r="AD4">
+      <c r="AD4" s="4">
         <v>0.05510390885535428</v>
       </c>
-      <c r="AE4">
+      <c r="AE4" s="4">
         <v>0.0440874039929384</v>
       </c>
-      <c r="AF4">
+      <c r="AF4" s="4">
         <v>0.002515313768376699</v>
       </c>
-      <c r="AG4">
+      <c r="AG4" s="4">
         <v>4602.317765047052</v>
       </c>
-      <c r="AH4">
+      <c r="AH4" s="4">
         <v>268.4470602234192</v>
       </c>
-      <c r="AI4">
+      <c r="AI4" s="4">
         <v>118.3696389548887</v>
       </c>
-      <c r="AJ4">
+      <c r="AJ4" s="4">
         <v>2.354912368417159</v>
       </c>
-      <c r="AK4">
+      <c r="AK4" s="4">
         <v>0.3483625681625527</v>
       </c>
-      <c r="AL4">
+      <c r="AL4" s="4">
         <v>0.02211542740734296</v>
       </c>
-      <c r="AM4">
+      <c r="AM4" s="4">
         <v>0.3496798488110655</v>
       </c>
-      <c r="AN4">
+      <c r="AN4" s="4">
         <v>0.02219905356933545</v>
       </c>
-      <c r="AO4">
+      <c r="AO4" s="4">
         <v>40.5947</v>
       </c>
-      <c r="AP4">
-        <v>3.0619</v>
-      </c>
-      <c r="AQ4">
-        <v>7.542610242223738</v>
-      </c>
-      <c r="AR4">
+      <c r="AP4" s="4">
+        <v>3.1188</v>
+      </c>
+      <c r="AQ4" s="4">
+        <v>7.682776323017536</v>
+      </c>
+      <c r="AR4" s="4">
         <v>7.569285432836495E-05</v>
       </c>
-      <c r="AS4">
+      <c r="AS4" s="4">
         <v>2.298844921443457E-06</v>
       </c>
-      <c r="AT4">
-        <v>8</v>
-      </c>
-      <c r="AU4">
-        <v>4</v>
-      </c>
-      <c r="AV4">
-        <v>40.5364</v>
-      </c>
-      <c r="AW4">
-        <v>3.0713</v>
-      </c>
-      <c r="AX4">
-        <v>3.102977475086067</v>
-      </c>
-      <c r="AY4">
-        <v>7.576647161563434</v>
-      </c>
-      <c r="AZ4" t="s">
+      <c r="AT4" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="AU4" s="4">
+        <v>0.375</v>
+      </c>
+      <c r="AV4" s="4">
+        <v>40.5892</v>
+      </c>
+      <c r="AW4" s="4">
+        <v>3.083</v>
+      </c>
+      <c r="AX4" s="4">
+        <v>3.102789947771582</v>
+      </c>
+      <c r="AY4" s="4">
+        <v>7.595616567954037</v>
+      </c>
+      <c r="AZ4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BA4">
+      <c r="BA4" s="4">
         <v>62.5</v>
       </c>
-      <c r="BB4">
-        <v>132.715589644692</v>
-      </c>
-      <c r="BC4">
-        <v>2.880012019890454</v>
-      </c>
-      <c r="BD4">
-        <v>40478.4</v>
-      </c>
-      <c r="BE4">
-        <v>1551.488737543034</v>
-      </c>
-      <c r="BF4">
-        <v>7.654792914728657</v>
-      </c>
-      <c r="BG4">
+      <c r="BB4" s="4">
+        <v>132.7353663737139</v>
+      </c>
+      <c r="BC4" s="4">
+        <v>2.882194458813069</v>
+      </c>
+      <c r="BD4" s="4">
+        <v>40531.2</v>
+      </c>
+      <c r="BE4" s="4">
+        <v>1551.394973885791</v>
+      </c>
+      <c r="BF4" s="4">
+        <v>7.644373251435313</v>
+      </c>
+      <c r="BG4" s="4">
         <v>100</v>
       </c>
-      <c r="BH4">
+      <c r="BH4" s="4">
         <v>100</v>
       </c>
     </row>
@@ -2889,10 +2926,10 @@
         <v>3.053771812890869E-07</v>
       </c>
       <c r="AT5" s="3">
-        <v>8</v>
+        <v>0.75</v>
       </c>
       <c r="AU5" s="3">
-        <v>4</v>
+        <v>0.375</v>
       </c>
       <c r="AV5" s="3" t="s">
         <v>108</v>
@@ -2931,185 +2968,185 @@
         <v>109</v>
       </c>
     </row>
-    <row r="6" spans="1:60">
-      <c r="A6">
+    <row r="6" spans="1:60" s="4" customFormat="1">
+      <c r="A6" s="4">
         <v>11070</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="4">
         <v>0.02552537483995687</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="4">
         <v>0.0001746693369340156</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="4">
         <v>0.0340962603054759</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="4">
         <v>3.409030031043897E-05</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="4">
         <v>4.701226467179322</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="4">
         <v>0.005851035925423791</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="4">
         <v>0.3</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="4">
         <v>2.431938732818607</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="4">
         <v>0.01664168023345251</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="4">
         <v>0.03357640218552736</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="4">
         <v>0.0002297622637531385</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="4">
         <v>0.005</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="4">
         <v>0.04513393861260342</v>
       </c>
-      <c r="P6">
+      <c r="P6" s="4">
         <v>4.512604924151938E-05</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" s="4">
         <v>0.03367615861197741</v>
       </c>
-      <c r="R6">
+      <c r="R6" s="4">
         <v>3.36702720503313E-05</v>
       </c>
-      <c r="S6">
+      <c r="S6" s="4">
         <v>0.9942541145216459</v>
       </c>
-      <c r="T6">
+      <c r="T6" s="4">
         <v>0.005078261061152813</v>
       </c>
-      <c r="U6">
+      <c r="U6" s="4">
         <v>1.085090450783649</v>
       </c>
-      <c r="V6">
+      <c r="V6" s="4">
         <v>0.005542217531274188</v>
       </c>
-      <c r="W6">
+      <c r="W6" s="4">
         <v>0.003</v>
       </c>
-      <c r="X6">
+      <c r="X6" s="4">
         <v>0.1282409074783169</v>
       </c>
-      <c r="Y6">
+      <c r="Y6" s="4">
         <v>0.001772130299358122</v>
       </c>
-      <c r="Z6">
+      <c r="Z6" s="4">
         <v>3.130848593323682E-05</v>
       </c>
-      <c r="AA6">
+      <c r="AA6" s="4">
         <v>4.326444473944292E-07</v>
       </c>
-      <c r="AB6">
+      <c r="AB6" s="4">
         <v>0.05</v>
       </c>
-      <c r="AC6">
+      <c r="AC6" s="4">
         <v>0.2639857424392835</v>
       </c>
-      <c r="AD6">
+      <c r="AD6" s="4">
         <v>0.007426004111004633</v>
       </c>
-      <c r="AE6">
+      <c r="AE6" s="4">
         <v>0.01205008839492074</v>
       </c>
-      <c r="AF6">
+      <c r="AF6" s="4">
         <v>0.0003389728745643598</v>
       </c>
-      <c r="AG6">
+      <c r="AG6" s="4">
         <v>384.8825018436445</v>
       </c>
-      <c r="AH6">
+      <c r="AH6" s="4">
         <v>12.06269394616137</v>
       </c>
-      <c r="AI6">
+      <c r="AI6" s="4">
         <v>85.0904507836494</v>
       </c>
-      <c r="AJ6">
+      <c r="AJ6" s="4">
         <v>5.542217531274188</v>
       </c>
-      <c r="AK6">
+      <c r="AK6" s="4">
         <v>0.3578225335544937</v>
       </c>
-      <c r="AL6">
+      <c r="AL6" s="4">
         <v>0.01007201917782916</v>
       </c>
-      <c r="AM6">
+      <c r="AM6" s="4">
         <v>0.3599234324706077</v>
       </c>
-      <c r="AN6">
+      <c r="AN6" s="4">
         <v>0.0101311554596155</v>
       </c>
-      <c r="AO6">
+      <c r="AO6" s="4">
         <v>43.6943</v>
       </c>
-      <c r="AP6">
-        <v>1.53</v>
-      </c>
-      <c r="AQ6">
-        <v>3.501600895311288</v>
-      </c>
-      <c r="AR6">
+      <c r="AP6" s="4">
+        <v>1.5256</v>
+      </c>
+      <c r="AQ6" s="4">
+        <v>3.491530931952223</v>
+      </c>
+      <c r="AR6" s="4">
         <v>0.0009296929110584932</v>
       </c>
-      <c r="AS6">
+      <c r="AS6" s="4">
         <v>1.288078618695636E-05</v>
       </c>
-      <c r="AT6">
-        <v>8</v>
-      </c>
-      <c r="AU6">
-        <v>4</v>
-      </c>
-      <c r="AV6">
-        <v>42.9519</v>
-      </c>
-      <c r="AW6">
-        <v>1.5817</v>
-      </c>
-      <c r="AX6">
-        <v>1.575935482963262</v>
-      </c>
-      <c r="AY6">
-        <v>3.682491344969606</v>
-      </c>
-      <c r="AZ6" t="s">
+      <c r="AT6" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="AU6" s="4">
+        <v>0.375</v>
+      </c>
+      <c r="AV6" s="4">
+        <v>43.6249</v>
+      </c>
+      <c r="AW6" s="4">
+        <v>1.5122</v>
+      </c>
+      <c r="AX6" s="4">
+        <v>1.532100394758485</v>
+      </c>
+      <c r="AY6" s="4">
+        <v>3.466368977350091</v>
+      </c>
+      <c r="AZ6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="BA6">
+      <c r="BA6" s="4">
         <v>99</v>
       </c>
-      <c r="BB6">
-        <v>96.05564476258355</v>
-      </c>
-      <c r="BC6">
-        <v>6.271090693158463</v>
-      </c>
-      <c r="BD6">
-        <v>42893.9</v>
-      </c>
-      <c r="BE6">
-        <v>787.9677414816312</v>
-      </c>
-      <c r="BF6">
-        <v>3.669070478752424</v>
-      </c>
-      <c r="BG6">
+      <c r="BB6" s="4">
+        <v>96.23825145083268</v>
+      </c>
+      <c r="BC6" s="4">
+        <v>6.281750050718499</v>
+      </c>
+      <c r="BD6" s="4">
+        <v>43566.89999999999</v>
+      </c>
+      <c r="BE6" s="4">
+        <v>766.0501973792426</v>
+      </c>
+      <c r="BF6" s="4">
+        <v>3.51198603265219</v>
+      </c>
+      <c r="BG6" s="4">
         <v>100</v>
       </c>
-      <c r="BH6">
+      <c r="BH6" s="4">
         <v>100</v>
       </c>
     </row>
@@ -3250,10 +3287,10 @@
         <v>2.868759046087516E-07</v>
       </c>
       <c r="AT7" s="3">
-        <v>8</v>
+        <v>0.75</v>
       </c>
       <c r="AU7" s="3">
-        <v>4</v>
+        <v>0.375</v>
       </c>
       <c r="AV7" s="3" t="s">
         <v>108</v>
@@ -3292,185 +3329,185 @@
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="1:60">
-      <c r="A8">
+    <row r="8" spans="1:60" s="4" customFormat="1">
+      <c r="A8" s="4">
         <v>11071</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="4">
         <v>0.09979483482092993</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="4">
         <v>0.0004039300151177332</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="4">
         <v>0.13025665020751</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="4">
         <v>3.966757208055101E-05</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="4">
         <v>17.95991718726169</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="4">
         <v>0.005777728806237521</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="4">
         <v>0.3</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="4">
         <v>4.016004152197543</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="4">
         <v>0.0162551961814542</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="4">
         <v>0.055446697226887</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="4">
         <v>0.0002244262971051846</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="4">
         <v>0.005</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="4">
         <v>0.07281134033637573</v>
       </c>
-      <c r="P8">
+      <c r="P8" s="4">
         <v>2.217352500984392E-05</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" s="4">
         <v>0.05432732709114263</v>
       </c>
-      <c r="R8">
+      <c r="R8" s="4">
         <v>1.65445154615785E-05</v>
       </c>
-      <c r="S8">
+      <c r="S8" s="4">
         <v>1.009546339218876</v>
       </c>
-      <c r="T8">
+      <c r="T8" s="4">
         <v>0.001978891721470877</v>
       </c>
-      <c r="U8">
+      <c r="U8" s="4">
         <v>1.084792755066208</v>
       </c>
-      <c r="V8">
+      <c r="V8" s="4">
         <v>0.002126388179638268</v>
       </c>
-      <c r="W8">
+      <c r="W8" s="4">
         <v>0.003</v>
       </c>
-      <c r="X8">
+      <c r="X8" s="4">
         <v>0.04521846708397234</v>
       </c>
-      <c r="Y8">
+      <c r="Y8" s="4">
         <v>0.0002536782776264215</v>
       </c>
-      <c r="Z8">
+      <c r="Z8" s="4">
         <v>1.103954867802579E-05</v>
       </c>
-      <c r="AA8">
+      <c r="AA8" s="4">
         <v>6.193252171096383E-08</v>
       </c>
-      <c r="AB8">
+      <c r="AB8" s="4">
         <v>0.05</v>
       </c>
-      <c r="AC8">
+      <c r="AC8" s="4">
         <v>0.3360513479337328</v>
       </c>
-      <c r="AD8">
+      <c r="AD8" s="4">
         <v>0.003366389271707235</v>
       </c>
-      <c r="AE8">
+      <c r="AE8" s="4">
         <v>0.01533964830985187</v>
       </c>
-      <c r="AF8">
+      <c r="AF8" s="4">
         <v>0.000153664693861696</v>
       </c>
-      <c r="AG8">
+      <c r="AG8" s="4">
         <v>1389.517701967783</v>
       </c>
-      <c r="AH8">
+      <c r="AH8" s="4">
         <v>15.95362186671626</v>
       </c>
-      <c r="AI8">
+      <c r="AI8" s="4">
         <v>84.79275506620753</v>
       </c>
-      <c r="AJ8">
+      <c r="AJ8" s="4">
         <v>2.126388179638268</v>
       </c>
-      <c r="AK8">
+      <c r="AK8" s="4">
         <v>0.2823560283780794</v>
       </c>
-      <c r="AL8">
+      <c r="AL8" s="4">
         <v>0.002829803934800707</v>
       </c>
-      <c r="AM8">
+      <c r="AM8" s="4">
         <v>0.2845073603425241</v>
       </c>
-      <c r="AN8">
+      <c r="AN8" s="4">
         <v>0.002851364826179643</v>
       </c>
-      <c r="AO8">
+      <c r="AO8" s="4">
         <v>33.0313</v>
       </c>
-      <c r="AP8">
-        <v>0.3877</v>
-      </c>
-      <c r="AQ8">
-        <v>1.173735214781132</v>
-      </c>
-      <c r="AR8">
+      <c r="AP8" s="4">
+        <v>0.3955</v>
+      </c>
+      <c r="AQ8" s="4">
+        <v>1.197349180928392</v>
+      </c>
+      <c r="AR8" s="4">
         <v>0.0002032043405983366</v>
       </c>
-      <c r="AS8">
+      <c r="AS8" s="4">
         <v>1.141666750796068E-06</v>
       </c>
-      <c r="AT8">
-        <v>8</v>
-      </c>
-      <c r="AU8">
-        <v>4</v>
-      </c>
-      <c r="AV8">
-        <v>32.869</v>
-      </c>
-      <c r="AW8">
-        <v>0.4018</v>
-      </c>
-      <c r="AX8">
-        <v>0.4012563921752254</v>
-      </c>
-      <c r="AY8">
-        <v>1.222428428002069</v>
-      </c>
-      <c r="AZ8" t="s">
+      <c r="AT8" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="AU8" s="4">
+        <v>0.375</v>
+      </c>
+      <c r="AV8" s="4">
+        <v>33.0161</v>
+      </c>
+      <c r="AW8" s="4">
+        <v>0.3849</v>
+      </c>
+      <c r="AX8" s="4">
+        <v>0.3930735605253829</v>
+      </c>
+      <c r="AY8" s="4">
+        <v>1.165794869775655</v>
+      </c>
+      <c r="AZ8" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="BA8">
+      <c r="BA8" s="4">
         <v>98.5</v>
       </c>
-      <c r="BB8">
-        <v>93.03431408416772</v>
-      </c>
-      <c r="BC8">
-        <v>2.335449413947224</v>
-      </c>
-      <c r="BD8">
-        <v>32811</v>
-      </c>
-      <c r="BE8">
-        <v>200.6281960876127</v>
-      </c>
-      <c r="BF8">
-        <v>1.220774566233306</v>
-      </c>
-      <c r="BG8">
+      <c r="BB8" s="4">
+        <v>93.07294297357542</v>
+      </c>
+      <c r="BC8" s="4">
+        <v>2.336222822127192</v>
+      </c>
+      <c r="BD8" s="4">
+        <v>32958.1</v>
+      </c>
+      <c r="BE8" s="4">
+        <v>196.5367802626915</v>
+      </c>
+      <c r="BF8" s="4">
+        <v>1.190551156936716</v>
+      </c>
+      <c r="BG8" s="4">
         <v>100</v>
       </c>
-      <c r="BH8">
+      <c r="BH8" s="4">
         <v>100</v>
       </c>
     </row>
@@ -3611,10 +3648,10 @@
         <v>3.113828107255313E-07</v>
       </c>
       <c r="AT9" s="3">
-        <v>8</v>
+        <v>0.75</v>
       </c>
       <c r="AU9" s="3">
-        <v>4</v>
+        <v>0.375</v>
       </c>
       <c r="AV9" s="3" t="s">
         <v>108</v>
@@ -3653,182 +3690,182 @@
         <v>109</v>
       </c>
     </row>
-    <row r="10" spans="1:60">
-      <c r="A10">
+    <row r="10" spans="1:60" s="4" customFormat="1">
+      <c r="A10" s="4">
         <v>11072</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="4">
         <v>0.2950203981457464</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="4">
         <v>0.0007236711945133102</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="4">
         <v>0.3862548064806442</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="4">
         <v>3.33443211100497E-05</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="4">
         <v>53.25719897235771</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="4">
         <v>0.007255147207406271</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="4">
         <v>0.3</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="4">
         <v>14.71735687010089</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="4">
         <v>0.03610098587489193</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="4">
         <v>0.2031942197843598</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="4">
         <v>0.0004984258874089919</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="4">
         <v>0.005</v>
       </c>
-      <c r="O10">
+      <c r="O10" s="4">
         <v>0.2676375525550814</v>
       </c>
-      <c r="P10">
+      <c r="P10" s="4">
         <v>2.310441797428258E-05</v>
       </c>
-      <c r="Q10">
+      <c r="Q10" s="4">
         <v>0.1996946188926115</v>
       </c>
-      <c r="R10">
+      <c r="R10" s="4">
         <v>1.723909032220137E-05</v>
       </c>
-      <c r="S10">
+      <c r="S10" s="4">
         <v>1.012360756443133</v>
       </c>
-      <c r="T10">
+      <c r="T10" s="4">
         <v>0.001617865900988797</v>
       </c>
-      <c r="U10">
+      <c r="U10" s="4">
         <v>1.092922068133548</v>
       </c>
-      <c r="V10">
+      <c r="V10" s="4">
         <v>0.00174661190214829</v>
       </c>
-      <c r="W10">
+      <c r="W10" s="4">
         <v>0.003</v>
       </c>
-      <c r="X10">
+      <c r="X10" s="4">
         <v>1.233702320925857</v>
       </c>
-      <c r="Y10">
+      <c r="Y10" s="4">
         <v>0.003303908940628772</v>
       </c>
-      <c r="Z10">
+      <c r="Z10" s="4">
         <v>0.0003011936871005037</v>
       </c>
-      <c r="AA10">
+      <c r="AA10" s="4">
         <v>8.066099080736862E-07</v>
       </c>
-      <c r="AB10">
+      <c r="AB10" s="4">
         <v>0.05</v>
       </c>
-      <c r="AC10">
+      <c r="AC10" s="4">
         <v>3.364150167337777</v>
       </c>
-      <c r="AD10">
+      <c r="AD10" s="4">
         <v>0.01230657648898636</v>
       </c>
-      <c r="AE10">
+      <c r="AE10" s="4">
         <v>0.153562486048016</v>
       </c>
-      <c r="AF10">
+      <c r="AF10" s="4">
         <v>0.0005617550901077426</v>
       </c>
-      <c r="AG10">
+      <c r="AG10" s="4">
         <v>509.846297000158</v>
       </c>
-      <c r="AH10">
+      <c r="AH10" s="4">
         <v>2.311465847154252</v>
       </c>
-      <c r="AI10">
+      <c r="AI10" s="4">
         <v>92.92206813354831</v>
       </c>
-      <c r="AJ10">
+      <c r="AJ10" s="4">
         <v>1.74661190214829</v>
       </c>
-      <c r="AK10">
+      <c r="AK10" s="4">
         <v>0.768986600137665</v>
       </c>
-      <c r="AL10">
+      <c r="AL10" s="4">
         <v>0.002813853925313045</v>
       </c>
-      <c r="AM10">
+      <c r="AM10" s="4">
         <v>0.7748042174008862</v>
       </c>
-      <c r="AN10">
+      <c r="AN10" s="4">
         <v>0.002835141585161934</v>
       </c>
-      <c r="AO10">
+      <c r="AO10" s="4">
         <v>130.9367</v>
       </c>
-      <c r="AP10">
-        <v>1.0349</v>
-      </c>
-      <c r="AQ10">
-        <v>0.7903819173692326</v>
-      </c>
-      <c r="AR10">
+      <c r="AP10" s="4">
+        <v>1.0059</v>
+      </c>
+      <c r="AQ10" s="4">
+        <v>0.7682338106886762</v>
+      </c>
+      <c r="AR10" s="4">
         <v>0.001508271423490258</v>
       </c>
-      <c r="AS10">
+      <c r="AS10" s="4">
         <v>4.041315089254612E-06</v>
       </c>
-      <c r="AT10">
-        <v>8</v>
-      </c>
-      <c r="AU10">
-        <v>4</v>
-      </c>
-      <c r="AV10">
-        <v>129.7705</v>
-      </c>
-      <c r="AW10">
-        <v>1.1525</v>
-      </c>
-      <c r="AX10">
-        <v>1.170064610347327</v>
-      </c>
-      <c r="AY10">
-        <v>0.8881063107562968</v>
-      </c>
-      <c r="AZ10" t="s">
+      <c r="AT10" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="AU10" s="4">
+        <v>0.375</v>
+      </c>
+      <c r="AV10" s="4">
+        <v>130.8279</v>
+      </c>
+      <c r="AW10" s="4">
+        <v>1.0022</v>
+      </c>
+      <c r="AX10" s="4">
+        <v>1.014686711868263</v>
+      </c>
+      <c r="AY10" s="4">
+        <v>0.7660445516590879</v>
+      </c>
+      <c r="AZ10" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="BB10">
-        <v>134.0189626196007</v>
-      </c>
-      <c r="BC10">
-        <v>2.556523982462914</v>
-      </c>
-      <c r="BD10">
-        <v>129712.5</v>
-      </c>
-      <c r="BE10">
-        <v>585.0323051736634</v>
-      </c>
-      <c r="BF10">
-        <v>0.9016414442013608</v>
-      </c>
-      <c r="BG10">
+      <c r="BB10" s="4">
+        <v>134.4194786836581</v>
+      </c>
+      <c r="BC10" s="4">
+        <v>2.555060869955325</v>
+      </c>
+      <c r="BD10" s="4">
+        <v>130769.9</v>
+      </c>
+      <c r="BE10" s="4">
+        <v>507.3433559341315</v>
+      </c>
+      <c r="BF10" s="4">
+        <v>0.7755889316179981</v>
+      </c>
+      <c r="BG10" s="4">
         <v>100</v>
       </c>
-      <c r="BH10">
+      <c r="BH10" s="4">
         <v>100</v>
       </c>
     </row>
@@ -3969,10 +4006,10 @@
         <v>3.085581992390372E-07</v>
       </c>
       <c r="AT11" s="3">
-        <v>8</v>
+        <v>0.75</v>
       </c>
       <c r="AU11" s="3">
-        <v>4</v>
+        <v>0.375</v>
       </c>
       <c r="AV11" s="3" t="s">
         <v>108</v>
@@ -4011,182 +4048,182 @@
         <v>109</v>
       </c>
     </row>
-    <row r="12" spans="1:60">
-      <c r="A12">
+    <row r="12" spans="1:60" s="4" customFormat="1">
+      <c r="A12" s="4">
         <v>11074</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="4">
         <v>0.3880735022186643</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="4">
         <v>0.001255329116496792</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="4">
         <v>0.4493095712755549</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="4">
         <v>4.423491043471031E-05</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="4">
         <v>61.95125299704478</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="4">
         <v>0.008750063554476335</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="4">
         <v>0.3</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="4">
         <v>21.20190850842381</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="4">
         <v>0.06858333002320977</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="4">
         <v>0.2927227555418396</v>
       </c>
-      <c r="M12">
+      <c r="M12" s="4">
         <v>0.000946891235789123</v>
       </c>
-      <c r="N12">
+      <c r="N12" s="4">
         <v>0.005</v>
       </c>
-      <c r="O12">
+      <c r="O12" s="4">
         <v>0.3409490342598548</v>
       </c>
-      <c r="P12">
+      <c r="P12" s="4">
         <v>3.356672316253905E-05</v>
       </c>
-      <c r="Q12">
+      <c r="Q12" s="4">
         <v>0.2543951205962146</v>
       </c>
-      <c r="R12">
+      <c r="R12" s="4">
         <v>2.504541655467983E-05</v>
       </c>
-      <c r="S12">
+      <c r="S12" s="4">
         <v>1.083801718933164</v>
       </c>
-      <c r="T12">
+      <c r="T12" s="4">
         <v>0.001280124441955429</v>
       </c>
-      <c r="U12">
+      <c r="U12" s="4">
         <v>1.15761292645673</v>
       </c>
-      <c r="V12">
+      <c r="V12" s="4">
         <v>0.001367306007725753</v>
       </c>
-      <c r="W12">
+      <c r="W12" s="4">
         <v>0.003</v>
       </c>
-      <c r="X12">
+      <c r="X12" s="4">
         <v>26.77659374193307</v>
       </c>
-      <c r="Y12">
+      <c r="Y12" s="4">
         <v>0.06837106413194607</v>
       </c>
-      <c r="Z12">
+      <c r="Z12" s="4">
         <v>0.006537185559538053</v>
       </c>
-      <c r="AA12">
+      <c r="AA12" s="4">
         <v>1.669197872743843E-05</v>
       </c>
-      <c r="AB12">
+      <c r="AB12" s="4">
         <v>0.05</v>
       </c>
-      <c r="AC12">
+      <c r="AC12" s="4">
         <v>3.673992129157446</v>
       </c>
-      <c r="AD12">
+      <c r="AD12" s="4">
         <v>0.01235994042422457</v>
       </c>
-      <c r="AE12">
+      <c r="AE12" s="4">
         <v>0.1677057613396405</v>
       </c>
-      <c r="AF12">
+      <c r="AF12" s="4">
         <v>0.0005641909797538252</v>
       </c>
-      <c r="AG12">
+      <c r="AG12" s="4">
         <v>25.65412283500965</v>
       </c>
-      <c r="AH12">
+      <c r="AH12" s="4">
         <v>0.1083486549971176</v>
       </c>
-      <c r="AI12">
+      <c r="AI12" s="4">
         <v>157.6129264567303</v>
       </c>
-      <c r="AJ12">
+      <c r="AJ12" s="4">
         <v>1.367306007725754</v>
       </c>
-      <c r="AK12">
+      <c r="AK12" s="4">
         <v>0.6592334041100945</v>
       </c>
-      <c r="AL12">
+      <c r="AL12" s="4">
         <v>0.002218723836525862</v>
       </c>
-      <c r="AM12">
+      <c r="AM12" s="4">
         <v>0.6633183940606847</v>
       </c>
-      <c r="AN12">
+      <c r="AN12" s="4">
         <v>0.002232472327604797</v>
       </c>
-      <c r="AO12">
+      <c r="AO12" s="4">
         <v>90.47839999999999</v>
       </c>
-      <c r="AP12">
-        <v>0.4926</v>
-      </c>
-      <c r="AQ12">
-        <v>0.5444393357972732</v>
-      </c>
-      <c r="AR12">
+      <c r="AP12" s="4">
+        <v>0.4997</v>
+      </c>
+      <c r="AQ12" s="4">
+        <v>0.5522865125820086</v>
+      </c>
+      <c r="AR12" s="4">
         <v>0.02569697698689008</v>
       </c>
-      <c r="AS12">
+      <c r="AS12" s="4">
         <v>6.566313668736589E-05</v>
       </c>
-      <c r="AT12">
-        <v>8</v>
-      </c>
-      <c r="AU12">
-        <v>4</v>
-      </c>
-      <c r="AV12">
-        <v>69.94029999999999</v>
-      </c>
-      <c r="AW12">
-        <v>11.7708</v>
-      </c>
-      <c r="AX12">
-        <v>11.37353031151855</v>
-      </c>
-      <c r="AY12">
-        <v>16.82978197119543</v>
-      </c>
-      <c r="AZ12" t="s">
+      <c r="AT12" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="AU12" s="4">
+        <v>0.375</v>
+      </c>
+      <c r="AV12" s="4">
+        <v>88.71720000000001</v>
+      </c>
+      <c r="AW12" s="4">
+        <v>1.0136</v>
+      </c>
+      <c r="AX12" s="4">
+        <v>1.017592564994873</v>
+      </c>
+      <c r="AY12" s="4">
+        <v>1.142506751791085</v>
+      </c>
+      <c r="AZ12" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="BB12">
-        <v>192.0043288260817</v>
-      </c>
-      <c r="BC12">
-        <v>6.591892796074486</v>
-      </c>
-      <c r="BD12">
-        <v>69882.29999999999</v>
-      </c>
-      <c r="BE12">
-        <v>5686.765155759274</v>
-      </c>
-      <c r="BF12">
-        <v>16.26176941122436</v>
-      </c>
-      <c r="BG12">
+      <c r="BB12" s="4">
+        <v>202.4529383155615</v>
+      </c>
+      <c r="BC12" s="4">
+        <v>1.849308345669272</v>
+      </c>
+      <c r="BD12" s="4">
+        <v>88659.20000000001</v>
+      </c>
+      <c r="BE12" s="4">
+        <v>508.7962824974366</v>
+      </c>
+      <c r="BF12" s="4">
+        <v>1.147007079793854</v>
+      </c>
+      <c r="BG12" s="4">
         <v>100</v>
       </c>
-      <c r="BH12">
+      <c r="BH12" s="4">
         <v>100</v>
       </c>
     </row>
@@ -4327,10 +4364,10 @@
         <v>2.95950916177098E-07</v>
       </c>
       <c r="AT13" s="3">
-        <v>8</v>
+        <v>0.75</v>
       </c>
       <c r="AU13" s="3">
-        <v>4</v>
+        <v>0.375</v>
       </c>
       <c r="AV13" s="3" t="s">
         <v>108</v>
@@ -4384,8 +4421,8 @@
   <cols>
     <col min="1" max="1" width="7.7109375" customWidth="1"/>
     <col min="2" max="2" width="18.7109375" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" customWidth="1"/>
     <col min="5" max="5" width="21.7109375" customWidth="1"/>
     <col min="6" max="6" width="22.7109375" customWidth="1"/>
     <col min="7" max="7" width="20.7109375" customWidth="1"/>
@@ -4464,7 +4501,7 @@
     </row>
     <row r="2" spans="1:19" s="2" customFormat="1">
       <c r="C2" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>94</v>
@@ -4523,10 +4560,10 @@
         <v>25</v>
       </c>
       <c r="C3" s="3">
-        <v>13.70011274743424</v>
+        <v>13700.11274743424</v>
       </c>
       <c r="D3" s="3">
-        <v>0.003174368278447611</v>
+        <v>3.174368278447611</v>
       </c>
       <c r="E3" s="3">
         <v>1.002521032090961</v>
@@ -4571,62 +4608,62 @@
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
-      <c r="A4">
+    <row r="4" spans="1:19" s="4" customFormat="1">
+      <c r="A4" s="4">
         <v>11069</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C4">
-        <v>0.1696147946525543</v>
-      </c>
-      <c r="D4">
-        <v>0.004722418684070873</v>
-      </c>
-      <c r="E4">
+      <c r="C4" s="4">
+        <v>169.6147946525543</v>
+      </c>
+      <c r="D4" s="4">
+        <v>4.722418684070873</v>
+      </c>
+      <c r="E4" s="4">
         <v>0.03923760064358411</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="4">
         <v>0.0004760561502757319</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="4">
         <v>0.3496798488110655</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="4">
         <v>0.02219905356933545</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="4">
         <v>4602.317765047052</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="4">
         <v>268.4470602234192</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="4">
         <v>118.3696389548887</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="4">
         <v>2.354912368417159</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="4">
         <v>40.5947</v>
       </c>
-      <c r="N4">
-        <v>3.0619</v>
-      </c>
-      <c r="O4">
-        <v>40.5364</v>
-      </c>
-      <c r="P4">
-        <v>3.0713</v>
-      </c>
-      <c r="Q4">
-        <v>132.715589644692</v>
-      </c>
-      <c r="R4">
-        <v>2.880012019890454</v>
-      </c>
-      <c r="S4">
+      <c r="N4" s="4">
+        <v>3.1188</v>
+      </c>
+      <c r="O4" s="4">
+        <v>40.5892</v>
+      </c>
+      <c r="P4" s="4">
+        <v>3.083</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>132.7353663737139</v>
+      </c>
+      <c r="R4" s="4">
+        <v>2.882194458813069</v>
+      </c>
+      <c r="S4" s="4">
         <v>62.5</v>
       </c>
     </row>
@@ -4638,10 +4675,10 @@
         <v>25</v>
       </c>
       <c r="C5" s="3">
-        <v>13.70396912729858</v>
+        <v>13703.96912729858</v>
       </c>
       <c r="D5" s="3">
-        <v>0.003885915661515161</v>
+        <v>3.885915661515161</v>
       </c>
       <c r="E5" s="3">
         <v>0.9920963323982441</v>
@@ -4686,62 +4723,62 @@
         <v>109</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
-      <c r="A6">
+    <row r="6" spans="1:19" s="4" customFormat="1">
+      <c r="A6" s="4">
         <v>11070</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C6">
-        <v>0.04513393861260342</v>
-      </c>
-      <c r="D6">
-        <v>4.512604924151938E-05</v>
-      </c>
-      <c r="E6">
+      <c r="C6" s="4">
+        <v>45.13393861260342</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.04512604924151938</v>
+      </c>
+      <c r="E6" s="4">
         <v>0.1282409074783169</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="4">
         <v>0.001772130299358122</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="4">
         <v>0.3599234324706077</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="4">
         <v>0.0101311554596155</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="4">
         <v>384.8825018436445</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="4">
         <v>12.06269394616137</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="4">
         <v>85.0904507836494</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="4">
         <v>5.542217531274188</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="4">
         <v>43.6943</v>
       </c>
-      <c r="N6">
-        <v>1.53</v>
-      </c>
-      <c r="O6">
-        <v>42.9519</v>
-      </c>
-      <c r="P6">
-        <v>1.5817</v>
-      </c>
-      <c r="Q6">
-        <v>96.05564476258355</v>
-      </c>
-      <c r="R6">
-        <v>6.271090693158463</v>
-      </c>
-      <c r="S6">
+      <c r="N6" s="4">
+        <v>1.5256</v>
+      </c>
+      <c r="O6" s="4">
+        <v>43.6249</v>
+      </c>
+      <c r="P6" s="4">
+        <v>1.5122</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>96.23825145083268</v>
+      </c>
+      <c r="R6" s="4">
+        <v>6.281750050718499</v>
+      </c>
+      <c r="S6" s="4">
         <v>99</v>
       </c>
     </row>
@@ -4753,10 +4790,10 @@
         <v>25</v>
       </c>
       <c r="C7" s="3">
-        <v>13.70039282653347</v>
+        <v>13700.39282653347</v>
       </c>
       <c r="D7" s="3">
-        <v>0.00514946752980778</v>
+        <v>5.149467529807779</v>
       </c>
       <c r="E7" s="3">
         <v>0.9402509825116642</v>
@@ -4801,62 +4838,62 @@
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
-      <c r="A8">
+    <row r="8" spans="1:19" s="4" customFormat="1">
+      <c r="A8" s="4">
         <v>11071</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C8">
-        <v>0.07281134033637573</v>
-      </c>
-      <c r="D8">
-        <v>2.217352500984392E-05</v>
-      </c>
-      <c r="E8">
+      <c r="C8" s="4">
+        <v>72.81134033637574</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.02217352500984392</v>
+      </c>
+      <c r="E8" s="4">
         <v>0.04521846708397234</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="4">
         <v>0.0002536782776264215</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="4">
         <v>0.2845073603425241</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="4">
         <v>0.002851364826179643</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="4">
         <v>1389.517701967783</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="4">
         <v>15.95362186671626</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="4">
         <v>84.79275506620753</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="4">
         <v>2.126388179638268</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="4">
         <v>33.0313</v>
       </c>
-      <c r="N8">
-        <v>0.3877</v>
-      </c>
-      <c r="O8">
-        <v>32.869</v>
-      </c>
-      <c r="P8">
-        <v>0.4018</v>
-      </c>
-      <c r="Q8">
-        <v>93.03431408416772</v>
-      </c>
-      <c r="R8">
-        <v>2.335449413947224</v>
-      </c>
-      <c r="S8">
+      <c r="N8" s="4">
+        <v>0.3955</v>
+      </c>
+      <c r="O8" s="4">
+        <v>33.0161</v>
+      </c>
+      <c r="P8" s="4">
+        <v>0.3849</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>93.07294297357542</v>
+      </c>
+      <c r="R8" s="4">
+        <v>2.336222822127192</v>
+      </c>
+      <c r="S8" s="4">
         <v>98.5</v>
       </c>
     </row>
@@ -4868,10 +4905,10 @@
         <v>25</v>
       </c>
       <c r="C9" s="3">
-        <v>13.70083921731872</v>
+        <v>13700.83921731872</v>
       </c>
       <c r="D9" s="3">
-        <v>0.004026310130937999</v>
+        <v>4.026310130937999</v>
       </c>
       <c r="E9" s="3">
         <v>0.951971070867271</v>
@@ -4916,60 +4953,60 @@
         <v>109</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
-      <c r="A10">
+    <row r="10" spans="1:19" s="4" customFormat="1">
+      <c r="A10" s="4">
         <v>11072</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C10">
-        <v>0.2676375525550814</v>
-      </c>
-      <c r="D10">
-        <v>2.310441797428258E-05</v>
-      </c>
-      <c r="E10">
+      <c r="C10" s="4">
+        <v>267.6375525550814</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.02310441797428258</v>
+      </c>
+      <c r="E10" s="4">
         <v>1.233702320925857</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="4">
         <v>0.003303908940628772</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="4">
         <v>0.7748042174008862</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="4">
         <v>0.002835141585161934</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="4">
         <v>509.846297000158</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="4">
         <v>2.311465847154252</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="4">
         <v>92.92206813354831</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="4">
         <v>1.74661190214829</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="4">
         <v>130.9367</v>
       </c>
-      <c r="N10">
-        <v>1.0349</v>
-      </c>
-      <c r="O10">
-        <v>129.7705</v>
-      </c>
-      <c r="P10">
-        <v>1.1525</v>
-      </c>
-      <c r="Q10">
-        <v>134.0189626196007</v>
-      </c>
-      <c r="R10">
-        <v>2.556523982462914</v>
+      <c r="N10" s="4">
+        <v>1.0059</v>
+      </c>
+      <c r="O10" s="4">
+        <v>130.8279</v>
+      </c>
+      <c r="P10" s="4">
+        <v>1.0022</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>134.4194786836581</v>
+      </c>
+      <c r="R10" s="4">
+        <v>2.555060869955325</v>
       </c>
     </row>
     <row r="11" spans="1:19" s="3" customFormat="1">
@@ -4980,10 +5017,10 @@
         <v>25</v>
       </c>
       <c r="C11" s="3">
-        <v>13.69435049735501</v>
+        <v>13694.35049735501</v>
       </c>
       <c r="D11" s="3">
-        <v>0.003801766061657155</v>
+        <v>3.801766061657155</v>
       </c>
       <c r="E11" s="3">
         <v>0.9582194644225097</v>
@@ -5028,60 +5065,60 @@
         <v>109</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
-      <c r="A12">
+    <row r="12" spans="1:19" s="4" customFormat="1">
+      <c r="A12" s="4">
         <v>11074</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C12">
-        <v>0.3409490342598548</v>
-      </c>
-      <c r="D12">
-        <v>3.356672316253905E-05</v>
-      </c>
-      <c r="E12">
+      <c r="C12" s="4">
+        <v>340.9490342598548</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0.03356672316253905</v>
+      </c>
+      <c r="E12" s="4">
         <v>26.77659374193307</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="4">
         <v>0.06837106413194607</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="4">
         <v>0.6633183940606847</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="4">
         <v>0.002232472327604797</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="4">
         <v>25.65412283500965</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="4">
         <v>0.1083486549971176</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="4">
         <v>157.6129264567303</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="4">
         <v>1.367306007725754</v>
       </c>
-      <c r="M12">
+      <c r="M12" s="4">
         <v>90.47839999999999</v>
       </c>
-      <c r="N12">
-        <v>0.4926</v>
-      </c>
-      <c r="O12">
-        <v>69.94029999999999</v>
-      </c>
-      <c r="P12">
-        <v>11.7708</v>
-      </c>
-      <c r="Q12">
-        <v>192.0043288260817</v>
-      </c>
-      <c r="R12">
-        <v>6.591892796074486</v>
+      <c r="N12" s="4">
+        <v>0.4997</v>
+      </c>
+      <c r="O12" s="4">
+        <v>88.71720000000001</v>
+      </c>
+      <c r="P12" s="4">
+        <v>1.0136</v>
+      </c>
+      <c r="Q12" s="4">
+        <v>202.4529383155615</v>
+      </c>
+      <c r="R12" s="4">
+        <v>1.849308345669272</v>
       </c>
     </row>
     <row r="13" spans="1:19" s="3" customFormat="1">
@@ -5092,10 +5129,10 @@
         <v>25</v>
       </c>
       <c r="C13" s="3">
-        <v>13.70700455565908</v>
+        <v>13707.00455565908</v>
       </c>
       <c r="D13" s="3">
-        <v>0.004247352439305455</v>
+        <v>4.247352439305455</v>
       </c>
       <c r="E13" s="3">
         <v>0.9565991533629175</v>
@@ -5158,307 +5195,340 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="B1" s="5">
+      <c r="B1" s="6">
         <v>0.002324</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="6">
         <v>0.005066</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="6">
         <v>5E-05</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="6">
         <v>1.336402435064349</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="6">
         <v>1.008202776684838</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="6">
         <v>0.334493224630051</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="6">
         <v>0.665506775369946</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="6">
         <v>1.025840620457897</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="6">
         <v>1.673784240557133</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="6">
         <v>0.673784240557127</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="6">
         <v>-0.337307116990441</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="6">
         <v>0.336402435064353</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="6">
         <v>-0.34318587041139</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="6">
         <v>-1.025840620457897</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="6">
         <v>0.337307116990439</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="6">
         <v>0.682654750046506</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="6">
         <v>6.02214129E+23</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="6">
         <v>137.881</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="6">
         <v>62500000</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="6">
         <v>3.4053</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="6">
         <v>4.94752E-11</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="6">
         <v>2.82206E-06</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B24" s="6">
         <v>1.55125E-10</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B25" s="6">
         <v>9.1705E-06</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B26" s="6">
         <v>3.86778</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="B27" s="5">
+      <c r="B27" s="6">
         <v>0.038556</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="B28" s="5">
+      <c r="B28" s="6">
         <v>0.018067</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="B29" s="5">
+      <c r="B29" s="6">
         <v>0.3</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="B30" s="5">
+      <c r="B30" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="B31" s="5">
+      <c r="B31" s="6">
         <v>0.005</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="B32" s="5">
+      <c r="B32" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="B33" s="5">
+      <c r="B33" s="6">
         <v>0.003</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="B34" s="5">
+      <c r="B34" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="B35" s="5">
+      <c r="B35" s="6">
         <v>0.05</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="4" t="s">
+      <c r="A36" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="B36" s="5">
+      <c r="B36" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="B37" s="5">
-        <v>8</v>
+      <c r="B37" s="6">
+        <v>0.75</v>
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="B38" s="5">
-        <v>4</v>
+      <c r="B38" s="6">
+        <v>0.375</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>168</v>
       </c>
     </row>
   </sheetData>
